--- a/biology/Botanique/Gloire_d'Orléans/Gloire_d'Orléans.xlsx
+++ b/biology/Botanique/Gloire_d'Orléans/Gloire_d'Orléans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gloire_d%27Orl%C3%A9ans</t>
+          <t>Gloire_d'Orléans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Gloire d'Orléans' est un cultivar de rosier obtenu en 1912 par le rosiériste orléanais Ernest Levavasseur[1].
+'Gloire d'Orléans' est un cultivar de rosier obtenu en 1912 par le rosiériste orléanais Ernest Levavasseur.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gloire_d%27Orl%C3%A9ans</t>
+          <t>Gloire_d'Orléans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison Levavasseur &amp; Cie lance de nombreux rosiers polyanthas au début du XXe siècle dont celui-ci, baptisé à la gloire de la ville d'Orléans. Il montre à la fin du printemps de multiples bouquets de petites fleurs (17-25 fleurs) en grappes, de couleur rose foncé[2] au cœur plus pâle. Il peut faire une remontée au cours de l'été. 
-Le buisson forme un petit arbuste compact au feuillage foncé assez vigoureux pouvant atteindre de 60 cm à 70 cm. Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers froids[1].
-On peut admirer ce rosier aux couleurs délicates à la roseraie Jean-Dupont d'Orléans Il est toujours commercialisé[3]. Il est parfait pour la culture en pot et pour des premiers plans de bordures.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison Levavasseur &amp; Cie lance de nombreux rosiers polyanthas au début du XXe siècle dont celui-ci, baptisé à la gloire de la ville d'Orléans. Il montre à la fin du printemps de multiples bouquets de petites fleurs (17-25 fleurs) en grappes, de couleur rose foncé au cœur plus pâle. Il peut faire une remontée au cours de l'été. 
+Le buisson forme un petit arbuste compact au feuillage foncé assez vigoureux pouvant atteindre de 60 cm à 70 cm. Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers froids.
+On peut admirer ce rosier aux couleurs délicates à la roseraie Jean-Dupont d'Orléans Il est toujours commercialisé. Il est parfait pour la culture en pot et pour des premiers plans de bordures.
 </t>
         </is>
       </c>
